--- a/ProMicroCH552_pin.xlsx
+++ b/ProMicroCH552_pin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Documents/GitHub/ProMicroCH552/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC10BF-9DEE-CD43-A4F2-F29C0085497B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C26EF2-278E-AC4A-BA01-87514EED2765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="23340" windowHeight="16940" xr2:uid="{A4EAA408-4BB2-4748-9D1F-CB1A4CEA2614}"/>
   </bookViews>
@@ -371,16 +371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -395,7 +395,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8547100" y="3429000"/>
+          <a:off x="9537700" y="3454400"/>
           <a:ext cx="215900" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -813,7 +813,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:O16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1168,7 +1168,7 @@
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>28</v>
       </c>
     </row>
